--- a/ProductBacklog/Sprints.xlsx
+++ b/ProductBacklog/Sprints.xlsx
@@ -31,16 +31,16 @@
     <t>EndDate</t>
   </si>
   <si>
-    <t>ActualCapacity</t>
-  </si>
-  <si>
     <t>EffortDone</t>
   </si>
   <si>
-    <t>PlannedCapacity</t>
-  </si>
-  <si>
-    <t>PlannedEffort</t>
+    <t>CapacityForecast</t>
+  </si>
+  <si>
+    <t>EffortForecast</t>
+  </si>
+  <si>
+    <t>CapacityDone</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,16 +408,16 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/ProductBacklog/Sprints.xlsx
+++ b/ProductBacklog/Sprints.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sprints" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t>CapacityDone</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
@@ -380,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I4" sqref="I4:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +403,7 @@
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -419,8 +425,14 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -442,8 +454,24 @@
       <c r="G2">
         <v>0.5</v>
       </c>
+      <c r="I2">
+        <f>IF(D2&lt;&gt;"",E2/D2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>I2*D2</f>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>IF(F2&lt;&gt;"",G2/F2,"")</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L2">
+        <f>K2*F2</f>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -458,6 +486,28 @@
       </c>
       <c r="E3">
         <v>6.5</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>7.5</v>
+      </c>
+      <c r="I3">
+        <f>IF(D3&lt;&gt;"",E3/D3,"")</f>
+        <v>0.8125</v>
+      </c>
+      <c r="J3">
+        <f>I3*D3</f>
+        <v>6.5</v>
+      </c>
+      <c r="K3">
+        <f>IF(F3&lt;&gt;"",G3/F3,"")</f>
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <f>K3*F3</f>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog/Sprints.xlsx
+++ b/ProductBacklog/Sprints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
   </si>
 </sst>
 </file>
@@ -386,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:L7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,6 +513,23 @@
         <v>7.5</v>
       </c>
     </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>41756</v>
+      </c>
+      <c r="C4" s="1">
+        <v>41756</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ProductBacklog/Sprints.xlsx
+++ b/ProductBacklog/Sprints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
   </si>
 </sst>
 </file>
@@ -389,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,6 +532,29 @@
       <c r="E4">
         <v>4</v>
       </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>41757</v>
+      </c>
+      <c r="C5" s="1">
+        <v>41759</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProductBacklog/Sprints.xlsx
+++ b/ProductBacklog/Sprints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Sprint 5</t>
+  </si>
+  <si>
+    <t>Sprint 6</t>
+  </si>
+  <si>
+    <t>Sprint 7</t>
+  </si>
+  <si>
+    <t>Sprint 8</t>
   </si>
 </sst>
 </file>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,6 +567,65 @@
       <c r="E5">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>41760</v>
+      </c>
+      <c r="C6" s="1">
+        <v>41760</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41761</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41761</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41761</v>
+      </c>
+      <c r="C8" s="1">
+        <v>41761</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41761</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41761</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ProductBacklog/Sprints.xlsx
+++ b/ProductBacklog/Sprints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -22,33 +22,6 @@
     <t>Sprint 2</t>
   </si>
   <si>
-    <t>SprintName</t>
-  </si>
-  <si>
-    <t>StartDate</t>
-  </si>
-  <si>
-    <t>EndDate</t>
-  </si>
-  <si>
-    <t>EffortDone</t>
-  </si>
-  <si>
-    <t>CapacityForecast</t>
-  </si>
-  <si>
-    <t>EffortForecast</t>
-  </si>
-  <si>
-    <t>CapacityDone</t>
-  </si>
-  <si>
-    <t>Forecast</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Sprint 3</t>
   </si>
   <si>
@@ -65,6 +38,27 @@
   </si>
   <si>
     <t>Sprint 8</t>
+  </si>
+  <si>
+    <t>Sprint Name</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Capacity Forecast</t>
+  </si>
+  <si>
+    <t>Effort Forecast</t>
+  </si>
+  <si>
+    <t>Capacity Done</t>
+  </si>
+  <si>
+    <t>Effort Done</t>
   </si>
 </sst>
 </file>
@@ -404,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H1" sqref="H1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,36 +415,30 @@
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,24 +460,8 @@
       <c r="G2">
         <v>0.5</v>
       </c>
-      <c r="I2">
-        <f>IF(D2&lt;&gt;"",E2/D2,"")</f>
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <f>I2*D2</f>
-        <v>4</v>
-      </c>
-      <c r="K2">
-        <f>IF(F2&lt;&gt;"",G2/F2,"")</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="L2">
-        <f>K2*F2</f>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -511,26 +483,10 @@
       <c r="G3">
         <v>7.5</v>
       </c>
-      <c r="I3">
-        <f>IF(D3&lt;&gt;"",E3/D3,"")</f>
-        <v>0.8125</v>
-      </c>
-      <c r="J3">
-        <f>I3*D3</f>
-        <v>6.5</v>
-      </c>
-      <c r="K3">
-        <f>IF(F3&lt;&gt;"",G3/F3,"")</f>
-        <v>0.75</v>
-      </c>
-      <c r="L3">
-        <f>K3*F3</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>41756</v>
@@ -551,9 +507,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>41757</v>
@@ -568,63 +524,69 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>41760</v>
       </c>
       <c r="C6" s="1">
-        <v>41760</v>
+        <v>41763</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>41764</v>
+      </c>
+      <c r="C7" s="1">
+        <v>41770</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1">
-        <v>41761</v>
-      </c>
-      <c r="C7" s="1">
-        <v>41761</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
       <c r="B8" s="1">
-        <v>41761</v>
+        <v>41771</v>
       </c>
       <c r="C8" s="1">
-        <v>41761</v>
+        <v>41777</v>
       </c>
       <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>41761</v>
+        <v>41778</v>
       </c>
       <c r="C9" s="1">
-        <v>41761</v>
+        <v>41784</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ProductBacklog/Sprints.xlsx
+++ b/ProductBacklog/Sprints.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -22,6 +22,33 @@
     <t>Sprint 2</t>
   </si>
   <si>
+    <t>SprintName</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>EffortDone</t>
+  </si>
+  <si>
+    <t>CapacityForecast</t>
+  </si>
+  <si>
+    <t>EffortForecast</t>
+  </si>
+  <si>
+    <t>CapacityDone</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Sprint 3</t>
   </si>
   <si>
@@ -38,27 +65,6 @@
   </si>
   <si>
     <t>Sprint 8</t>
-  </si>
-  <si>
-    <t>Sprint Name</t>
-  </si>
-  <si>
-    <t>Start Date</t>
-  </si>
-  <si>
-    <t>End Date</t>
-  </si>
-  <si>
-    <t>Capacity Forecast</t>
-  </si>
-  <si>
-    <t>Effort Forecast</t>
-  </si>
-  <si>
-    <t>Capacity Done</t>
-  </si>
-  <si>
-    <t>Effort Done</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,30 +421,36 @@
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -460,8 +472,24 @@
       <c r="G2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>IF(D2&lt;&gt;"",E2/D2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>I2*D2</f>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>IF(F2&lt;&gt;"",G2/F2,"")</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="L2">
+        <f>K2*F2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -483,10 +511,26 @@
       <c r="G3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <f>IF(D3&lt;&gt;"",E3/D3,"")</f>
+        <v>0.8125</v>
+      </c>
+      <c r="J3">
+        <f>I3*D3</f>
+        <v>6.5</v>
+      </c>
+      <c r="K3">
+        <f>IF(F3&lt;&gt;"",G3/F3,"")</f>
+        <v>0.75</v>
+      </c>
+      <c r="L3">
+        <f>K3*F3</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1">
         <v>41756</v>
@@ -507,9 +551,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>41757</v>
@@ -524,69 +568,63 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1">
         <v>41760</v>
       </c>
       <c r="C6" s="1">
-        <v>41763</v>
+        <v>41760</v>
       </c>
       <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
-        <v>41764</v>
+        <v>41761</v>
       </c>
       <c r="C7" s="1">
-        <v>41770</v>
+        <v>41761</v>
       </c>
       <c r="D7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>41771</v>
+        <v>41761</v>
       </c>
       <c r="C8" s="1">
-        <v>41777</v>
+        <v>41761</v>
       </c>
       <c r="D8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
-        <v>41778</v>
+        <v>41761</v>
       </c>
       <c r="C9" s="1">
-        <v>41784</v>
+        <v>41761</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
